--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.3405484103261412</v>
+      </c>
+      <c r="E2">
+        <v>0.006571779856966608</v>
+      </c>
+      <c r="F2">
+        <v>0.2470541604949841</v>
+      </c>
+      <c r="G2">
+        <v>0.06344726738240644</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.02413023079385734</v>
+      </c>
+      <c r="L2">
+        <v>0.005691481434654466</v>
+      </c>
+      <c r="M2">
+        <v>0.01254866787051358</v>
+      </c>
+      <c r="N2">
+        <v>0.05754096293816267</v>
+      </c>
+      <c r="O2">
+        <v>0.08726112549029227</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.02828016007398412</v>
+      </c>
+      <c r="R2">
+        <v>0.01649419536534821</v>
+      </c>
+      <c r="S2">
+        <v>0.02307832520160411</v>
+      </c>
+      <c r="T2">
+        <v>0.04494877478915096</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.01813263901168832</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.00506594437852847</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.01920587459171689</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.09907522425511477</v>
-      </c>
-      <c r="E2">
-        <v>0.05172620169333811</v>
-      </c>
-      <c r="F2">
-        <v>0.2383703447780526</v>
-      </c>
-      <c r="G2">
-        <v>0.138574432866832</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.006199035702297708</v>
-      </c>
-      <c r="J2">
-        <v>0.005591863574263263</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.02281980210887334</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.2052797993647073</v>
-      </c>
-      <c r="P2">
-        <v>0.004504079838684101</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.03680450851793868</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0.09736473628333166</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0.03133944353915809</v>
-      </c>
-      <c r="AE2">
-        <v>0.02336132930979603</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0.03898919816761246</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2688434842538285</v>
+      </c>
+      <c r="E3">
+        <v>0.01820223950835434</v>
+      </c>
+      <c r="F3">
+        <v>0.2939017510082181</v>
+      </c>
+      <c r="G3">
+        <v>0.1511911085369169</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.001348091699953542</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.003204137165711815</v>
+      </c>
+      <c r="O3">
+        <v>0.1117082611832371</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.009328418238687294</v>
+      </c>
+      <c r="R3">
+        <v>0.03546693896980187</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.06461861020555326</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.005322639972598444</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0.008181430041312145</v>
+      </c>
+      <c r="AE3">
+        <v>0.01180503556137606</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0.01687785365445055</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3538781619529383</v>
-      </c>
-      <c r="E3">
-        <v>0.02548419819053828</v>
-      </c>
-      <c r="F3">
-        <v>0.3210796571627028</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.007064426638044304</v>
-      </c>
-      <c r="I3">
-        <v>0.002773113479709287</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.01174076751863892</v>
-      </c>
-      <c r="M3">
-        <v>0.004028127848226357</v>
-      </c>
-      <c r="N3">
-        <v>0.06223601310508348</v>
-      </c>
-      <c r="O3">
-        <v>0.07660211892773543</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>1.903349094185803E-05</v>
-      </c>
-      <c r="S3">
-        <v>0.02160909241117735</v>
-      </c>
-      <c r="T3">
-        <v>0.04645969386831118</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0.03026406181334897</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.02026971142940604</v>
-      </c>
-      <c r="AG3">
-        <v>0.01649182216319732</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.08341523305446019</v>
+      </c>
+      <c r="E4">
+        <v>0.1197591270810147</v>
+      </c>
+      <c r="F4">
+        <v>0.2546540913044649</v>
+      </c>
+      <c r="G4">
+        <v>0.2869479718441105</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.01431023295130868</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.1006776879632361</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.02790493324343083</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.06626432642445765</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0.0007378132949413345</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.005281006815759735</v>
+      </c>
+      <c r="AE4">
+        <v>0.01412059079117448</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.0150058016494421</v>
+      </c>
+      <c r="AH4">
+        <v>0.01092118358219885</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.3083505097414167</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.346619634268323</v>
-      </c>
-      <c r="G4">
-        <v>0.04568315030783415</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.01359901158220007</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.007875671437466434</v>
-      </c>
-      <c r="M4">
-        <v>0.0005821300365309606</v>
-      </c>
-      <c r="N4">
-        <v>0.01151370671981604</v>
-      </c>
-      <c r="O4">
-        <v>0.09087620237824402</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.02200314681396942</v>
-      </c>
-      <c r="S4">
-        <v>0.007342509182449214</v>
-      </c>
-      <c r="T4">
-        <v>0.08490449157637305</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0.02717619158922793</v>
-      </c>
-      <c r="AE4">
-        <v>0.001109353400884108</v>
-      </c>
-      <c r="AF4">
-        <v>0.01042890668280907</v>
-      </c>
-      <c r="AG4">
-        <v>0.02193538428245577</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.05435782485181691</v>
+      </c>
+      <c r="E5">
+        <v>0.1523847789469605</v>
+      </c>
+      <c r="F5">
+        <v>0.2444754141010325</v>
+      </c>
+      <c r="G5">
+        <v>0.3031866942974247</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.0260212179282066</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.08690768737470629</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.03347589907616821</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.05119483657831494</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.002604301547497577</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.003967348728600804</v>
+      </c>
+      <c r="AE5">
+        <v>0.01298687394915586</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0.01894121386904455</v>
+      </c>
+      <c r="AH5">
+        <v>0.009495908751070483</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.2867534322645797</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.3415232597435729</v>
-      </c>
-      <c r="G5">
-        <v>0.131404984673549</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.001304076220064982</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.0003118817643436744</v>
-      </c>
-      <c r="L5">
-        <v>0.00857766052171237</v>
-      </c>
-      <c r="M5">
-        <v>0.01917473590664319</v>
-      </c>
-      <c r="N5">
-        <v>0.001693983986844822</v>
-      </c>
-      <c r="O5">
-        <v>0.07907712079290419</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.001867881158259138</v>
-      </c>
-      <c r="R5">
-        <v>0.02429763634433493</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.0541286482851956</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.001775684531343482</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0.01954153400374887</v>
-      </c>
-      <c r="AE5">
-        <v>0.007395282395664078</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0.02117219740723891</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2315835354771753</v>
       </c>
       <c r="E6">
-        <v>0.08802743037407133</v>
+        <v>0.03477456225788138</v>
       </c>
       <c r="F6">
-        <v>0.09438591364409819</v>
+        <v>0.1819504227888931</v>
       </c>
       <c r="G6">
-        <v>0.1913491791932337</v>
+        <v>0.1305907837037725</v>
       </c>
       <c r="H6">
-        <v>0.3169165097644219</v>
+        <v>0.004756881492736222</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00463534085340037</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1141,40 +1123,40 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04224920217435892</v>
       </c>
       <c r="N6">
-        <v>0.01369372979504757</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1756503241603455</v>
       </c>
       <c r="P6">
-        <v>0.1162720046724285</v>
+        <v>0.005471762267085502</v>
       </c>
       <c r="Q6">
-        <v>0.01956521288573922</v>
+        <v>0.005799569155759768</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.02526655534956692</v>
       </c>
       <c r="S6">
-        <v>0.0256809497389969</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.04846411847037514</v>
       </c>
       <c r="U6">
-        <v>0.05260638648660561</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.006470226892499716</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0004936467408553195</v>
+        <v>0.01838596178197461</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01105870263698613</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1192,24 +1174,21 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.004799546174787673</v>
       </c>
       <c r="AE6">
-        <v>0.01132518522481476</v>
+        <v>0.02169197279361902</v>
       </c>
       <c r="AF6">
-        <v>0.03080332696405915</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.03202906214418771</v>
       </c>
       <c r="AH6">
-        <v>0.02777495676972805</v>
+        <v>0.02547703717049429</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,344 +1311,332 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.3405484103261412</v>
+      </c>
+      <c r="E2">
+        <v>0.3471201901831079</v>
+      </c>
+      <c r="F2">
+        <v>0.594174350678092</v>
+      </c>
+      <c r="G2">
+        <v>0.6576216180604985</v>
+      </c>
+      <c r="H2">
+        <v>0.6576216180604985</v>
+      </c>
+      <c r="I2">
+        <v>0.6576216180604985</v>
+      </c>
+      <c r="J2">
+        <v>0.6576216180604985</v>
+      </c>
+      <c r="K2">
+        <v>0.6817518488543558</v>
+      </c>
+      <c r="L2">
+        <v>0.6874433302890103</v>
+      </c>
+      <c r="M2">
+        <v>0.6999919981595238</v>
+      </c>
+      <c r="N2">
+        <v>0.7575329610976865</v>
+      </c>
+      <c r="O2">
+        <v>0.8447940865879788</v>
+      </c>
+      <c r="P2">
+        <v>0.8447940865879788</v>
+      </c>
+      <c r="Q2">
+        <v>0.873074246661963</v>
+      </c>
+      <c r="R2">
+        <v>0.8895684420273112</v>
+      </c>
+      <c r="S2">
+        <v>0.9126467672289154</v>
+      </c>
+      <c r="T2">
+        <v>0.9575955420180663</v>
+      </c>
+      <c r="U2">
+        <v>0.9575955420180663</v>
+      </c>
+      <c r="V2">
+        <v>0.9575955420180663</v>
+      </c>
+      <c r="W2">
+        <v>0.9757281810297546</v>
+      </c>
+      <c r="X2">
+        <v>0.9757281810297546</v>
+      </c>
+      <c r="Y2">
+        <v>0.9757281810297546</v>
+      </c>
+      <c r="Z2">
+        <v>0.9757281810297546</v>
+      </c>
+      <c r="AA2">
+        <v>0.9757281810297546</v>
+      </c>
+      <c r="AB2">
+        <v>0.9757281810297546</v>
+      </c>
+      <c r="AC2">
+        <v>0.9757281810297546</v>
+      </c>
+      <c r="AD2">
+        <v>0.980794125408283</v>
+      </c>
+      <c r="AE2">
+        <v>0.980794125408283</v>
+      </c>
+      <c r="AF2">
+        <v>0.980794125408283</v>
+      </c>
+      <c r="AG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.09907522425511477</v>
-      </c>
-      <c r="E2">
-        <v>0.1508014259484529</v>
-      </c>
-      <c r="F2">
-        <v>0.3891717707265054</v>
-      </c>
-      <c r="G2">
-        <v>0.5277462035933375</v>
-      </c>
-      <c r="H2">
-        <v>0.5277462035933375</v>
-      </c>
-      <c r="I2">
-        <v>0.5339452392956352</v>
-      </c>
-      <c r="J2">
-        <v>0.5395371028698984</v>
-      </c>
-      <c r="K2">
-        <v>0.5395371028698984</v>
-      </c>
-      <c r="L2">
-        <v>0.5395371028698984</v>
-      </c>
-      <c r="M2">
-        <v>0.5623569049787718</v>
-      </c>
-      <c r="N2">
-        <v>0.5623569049787718</v>
-      </c>
-      <c r="O2">
-        <v>0.7676367043434791</v>
-      </c>
-      <c r="P2">
-        <v>0.7721407841821631</v>
-      </c>
-      <c r="Q2">
-        <v>0.7721407841821631</v>
-      </c>
-      <c r="R2">
-        <v>0.8089452927001018</v>
-      </c>
-      <c r="S2">
-        <v>0.8089452927001018</v>
-      </c>
-      <c r="T2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="U2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="V2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="W2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="X2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="Y2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="Z2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="AA2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="AB2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="AC2">
-        <v>0.9063100289834335</v>
-      </c>
-      <c r="AD2">
-        <v>0.9376494725225916</v>
-      </c>
-      <c r="AE2">
-        <v>0.9610108018323876</v>
-      </c>
-      <c r="AF2">
-        <v>0.9610108018323876</v>
-      </c>
-      <c r="AG2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2688434842538285</v>
+      </c>
+      <c r="E3">
+        <v>0.2870457237621828</v>
+      </c>
+      <c r="F3">
+        <v>0.5809474747704009</v>
+      </c>
+      <c r="G3">
+        <v>0.7321385833073178</v>
+      </c>
+      <c r="H3">
+        <v>0.7321385833073178</v>
+      </c>
+      <c r="I3">
+        <v>0.7321385833073178</v>
+      </c>
+      <c r="J3">
+        <v>0.7321385833073178</v>
+      </c>
+      <c r="K3">
+        <v>0.7334866750072714</v>
+      </c>
+      <c r="L3">
+        <v>0.7334866750072714</v>
+      </c>
+      <c r="M3">
+        <v>0.7334866750072714</v>
+      </c>
+      <c r="N3">
+        <v>0.7366908121729832</v>
+      </c>
+      <c r="O3">
+        <v>0.8483990733562203</v>
+      </c>
+      <c r="P3">
+        <v>0.8483990733562203</v>
+      </c>
+      <c r="Q3">
+        <v>0.8577274915949076</v>
+      </c>
+      <c r="R3">
+        <v>0.8931944305647095</v>
+      </c>
+      <c r="S3">
+        <v>0.8931944305647095</v>
+      </c>
+      <c r="T3">
+        <v>0.9578130407702627</v>
+      </c>
+      <c r="U3">
+        <v>0.9578130407702627</v>
+      </c>
+      <c r="V3">
+        <v>0.9578130407702627</v>
+      </c>
+      <c r="W3">
+        <v>0.9631356807428612</v>
+      </c>
+      <c r="X3">
+        <v>0.9631356807428612</v>
+      </c>
+      <c r="Y3">
+        <v>0.9631356807428612</v>
+      </c>
+      <c r="Z3">
+        <v>0.9631356807428612</v>
+      </c>
+      <c r="AA3">
+        <v>0.9631356807428612</v>
+      </c>
+      <c r="AB3">
+        <v>0.9631356807428612</v>
+      </c>
+      <c r="AC3">
+        <v>0.9631356807428612</v>
+      </c>
+      <c r="AD3">
+        <v>0.9713171107841733</v>
+      </c>
+      <c r="AE3">
+        <v>0.9831221463455493</v>
+      </c>
+      <c r="AF3">
+        <v>0.9831221463455493</v>
+      </c>
+      <c r="AG3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.08341523305446019</v>
+      </c>
+      <c r="E4">
+        <v>0.2031743601354749</v>
+      </c>
+      <c r="F4">
+        <v>0.4578284514399398</v>
+      </c>
+      <c r="G4">
+        <v>0.7447764232840502</v>
+      </c>
+      <c r="H4">
+        <v>0.7447764232840502</v>
+      </c>
+      <c r="I4">
+        <v>0.759086656235359</v>
+      </c>
+      <c r="J4">
+        <v>0.759086656235359</v>
+      </c>
+      <c r="K4">
+        <v>0.759086656235359</v>
+      </c>
+      <c r="L4">
+        <v>0.759086656235359</v>
+      </c>
+      <c r="M4">
+        <v>0.759086656235359</v>
+      </c>
+      <c r="N4">
+        <v>0.759086656235359</v>
+      </c>
+      <c r="O4">
+        <v>0.8597643441985952</v>
+      </c>
+      <c r="P4">
+        <v>0.8597643441985952</v>
+      </c>
+      <c r="Q4">
+        <v>0.8597643441985952</v>
+      </c>
+      <c r="R4">
+        <v>0.887669277442026</v>
+      </c>
+      <c r="S4">
+        <v>0.887669277442026</v>
+      </c>
+      <c r="T4">
+        <v>0.9539336038664836</v>
+      </c>
+      <c r="U4">
+        <v>0.9539336038664836</v>
+      </c>
+      <c r="V4">
+        <v>0.9539336038664836</v>
+      </c>
+      <c r="W4">
+        <v>0.9539336038664836</v>
+      </c>
+      <c r="X4">
+        <v>0.954671417161425</v>
+      </c>
+      <c r="Y4">
+        <v>0.954671417161425</v>
+      </c>
+      <c r="Z4">
+        <v>0.954671417161425</v>
+      </c>
+      <c r="AA4">
+        <v>0.954671417161425</v>
+      </c>
+      <c r="AB4">
+        <v>0.954671417161425</v>
+      </c>
+      <c r="AC4">
+        <v>0.954671417161425</v>
+      </c>
+      <c r="AD4">
+        <v>0.9599524239771847</v>
+      </c>
+      <c r="AE4">
+        <v>0.9740730147683592</v>
+      </c>
+      <c r="AF4">
+        <v>0.9740730147683592</v>
+      </c>
+      <c r="AG4">
+        <v>0.9890788164178013</v>
+      </c>
+      <c r="AH4">
         <v>1</v>
       </c>
-      <c r="AH2">
+      <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3538781619529383</v>
-      </c>
-      <c r="E3">
-        <v>0.3793623601434766</v>
-      </c>
-      <c r="F3">
-        <v>0.7004420173061794</v>
-      </c>
-      <c r="G3">
-        <v>0.7004420173061794</v>
-      </c>
-      <c r="H3">
-        <v>0.7075064439442237</v>
-      </c>
-      <c r="I3">
-        <v>0.710279557423933</v>
-      </c>
-      <c r="J3">
-        <v>0.710279557423933</v>
-      </c>
-      <c r="K3">
-        <v>0.710279557423933</v>
-      </c>
-      <c r="L3">
-        <v>0.722020324942572</v>
-      </c>
-      <c r="M3">
-        <v>0.7260484527907983</v>
-      </c>
-      <c r="N3">
-        <v>0.7882844658958819</v>
-      </c>
-      <c r="O3">
-        <v>0.8648865848236172</v>
-      </c>
-      <c r="P3">
-        <v>0.8648865848236172</v>
-      </c>
-      <c r="Q3">
-        <v>0.8648865848236172</v>
-      </c>
-      <c r="R3">
-        <v>0.8649056183145591</v>
-      </c>
-      <c r="S3">
-        <v>0.8865147107257365</v>
-      </c>
-      <c r="T3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="U3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="V3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="W3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="X3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="Y3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="Z3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="AA3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="AB3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="AC3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="AD3">
-        <v>0.9632384664073966</v>
-      </c>
-      <c r="AE3">
-        <v>0.9632384664073966</v>
-      </c>
-      <c r="AF3">
-        <v>0.9835081778368027</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.3083505097414167</v>
-      </c>
-      <c r="E4">
-        <v>0.3083505097414167</v>
-      </c>
-      <c r="F4">
-        <v>0.6549701440097397</v>
-      </c>
-      <c r="G4">
-        <v>0.7006532943175738</v>
-      </c>
-      <c r="H4">
-        <v>0.7006532943175738</v>
-      </c>
-      <c r="I4">
-        <v>0.714252305899774</v>
-      </c>
-      <c r="J4">
-        <v>0.714252305899774</v>
-      </c>
-      <c r="K4">
-        <v>0.714252305899774</v>
-      </c>
-      <c r="L4">
-        <v>0.7221279773372404</v>
-      </c>
-      <c r="M4">
-        <v>0.7227101073737714</v>
-      </c>
-      <c r="N4">
-        <v>0.7342238140935874</v>
-      </c>
-      <c r="O4">
-        <v>0.8251000164718314</v>
-      </c>
-      <c r="P4">
-        <v>0.8251000164718314</v>
-      </c>
-      <c r="Q4">
-        <v>0.8251000164718314</v>
-      </c>
-      <c r="R4">
-        <v>0.8471031632858008</v>
-      </c>
-      <c r="S4">
-        <v>0.85444567246825</v>
-      </c>
-      <c r="T4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="U4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="V4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="W4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="X4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="Y4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="Z4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="AA4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="AB4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="AC4">
-        <v>0.939350164044623</v>
-      </c>
-      <c r="AD4">
-        <v>0.9665263556338509</v>
-      </c>
-      <c r="AE4">
-        <v>0.9676357090347351</v>
-      </c>
-      <c r="AF4">
-        <v>0.9780646157175441</v>
-      </c>
-      <c r="AG4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -1677,94 +1644,94 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2867534322645797</v>
+        <v>0.05435782485181691</v>
       </c>
       <c r="E5">
-        <v>0.2867534322645797</v>
+        <v>0.2067426037987774</v>
       </c>
       <c r="F5">
-        <v>0.6282766920081526</v>
+        <v>0.4512180178998099</v>
       </c>
       <c r="G5">
-        <v>0.7596816766817016</v>
+        <v>0.7544047121972346</v>
       </c>
       <c r="H5">
-        <v>0.7596816766817016</v>
+        <v>0.7544047121972346</v>
       </c>
       <c r="I5">
-        <v>0.7609857529017666</v>
+        <v>0.7804259301254411</v>
       </c>
       <c r="J5">
-        <v>0.7609857529017666</v>
+        <v>0.7804259301254411</v>
       </c>
       <c r="K5">
-        <v>0.7612976346661103</v>
+        <v>0.7804259301254411</v>
       </c>
       <c r="L5">
-        <v>0.7698752951878227</v>
+        <v>0.7804259301254411</v>
       </c>
       <c r="M5">
-        <v>0.7890500310944659</v>
+        <v>0.7804259301254411</v>
       </c>
       <c r="N5">
-        <v>0.7907440150813108</v>
+        <v>0.7804259301254411</v>
       </c>
       <c r="O5">
-        <v>0.8698211358742149</v>
+        <v>0.8673336175001475</v>
       </c>
       <c r="P5">
-        <v>0.8698211358742149</v>
+        <v>0.8673336175001475</v>
       </c>
       <c r="Q5">
-        <v>0.871689017032474</v>
+        <v>0.8673336175001475</v>
       </c>
       <c r="R5">
-        <v>0.8959866533768089</v>
+        <v>0.9008095165763157</v>
       </c>
       <c r="S5">
-        <v>0.8959866533768089</v>
+        <v>0.9008095165763157</v>
       </c>
       <c r="T5">
-        <v>0.9501153016620045</v>
+        <v>0.9520043531546306</v>
       </c>
       <c r="U5">
-        <v>0.9501153016620045</v>
+        <v>0.9520043531546306</v>
       </c>
       <c r="V5">
-        <v>0.9501153016620045</v>
+        <v>0.9520043531546306</v>
       </c>
       <c r="W5">
-        <v>0.9501153016620045</v>
+        <v>0.9546086547021282</v>
       </c>
       <c r="X5">
-        <v>0.9501153016620045</v>
+        <v>0.9546086547021282</v>
       </c>
       <c r="Y5">
-        <v>0.9501153016620045</v>
+        <v>0.9546086547021282</v>
       </c>
       <c r="Z5">
-        <v>0.9501153016620045</v>
+        <v>0.9546086547021282</v>
       </c>
       <c r="AA5">
-        <v>0.9501153016620045</v>
+        <v>0.9546086547021282</v>
       </c>
       <c r="AB5">
-        <v>0.951890986193348</v>
+        <v>0.9546086547021282</v>
       </c>
       <c r="AC5">
-        <v>0.951890986193348</v>
+        <v>0.9546086547021282</v>
       </c>
       <c r="AD5">
-        <v>0.9714325201970969</v>
+        <v>0.958576003430729</v>
       </c>
       <c r="AE5">
-        <v>0.978827802592761</v>
+        <v>0.9715628773798849</v>
       </c>
       <c r="AF5">
-        <v>0.978827802592761</v>
+        <v>0.9715628773798849</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9905040912489295</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -1772,13 +1739,10 @@
       <c r="AI5">
         <v>1</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1787,103 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2315835354771753</v>
       </c>
       <c r="E6">
-        <v>0.08802743037407133</v>
+        <v>0.2663580977350567</v>
       </c>
       <c r="F6">
-        <v>0.1824133440181695</v>
+        <v>0.4483085205239498</v>
       </c>
       <c r="G6">
-        <v>0.3737625232114032</v>
+        <v>0.5788993042277223</v>
       </c>
       <c r="H6">
-        <v>0.6906790329758252</v>
+        <v>0.5836561857204585</v>
       </c>
       <c r="I6">
-        <v>0.6906790329758252</v>
+        <v>0.5836561857204585</v>
       </c>
       <c r="J6">
-        <v>0.6953143738292256</v>
+        <v>0.5836561857204585</v>
       </c>
       <c r="K6">
-        <v>0.6953143738292256</v>
+        <v>0.5836561857204585</v>
       </c>
       <c r="L6">
-        <v>0.6953143738292256</v>
+        <v>0.5836561857204585</v>
       </c>
       <c r="M6">
-        <v>0.6953143738292256</v>
+        <v>0.6259053878948174</v>
       </c>
       <c r="N6">
-        <v>0.7090081036242731</v>
+        <v>0.6259053878948174</v>
       </c>
       <c r="O6">
-        <v>0.7090081036242731</v>
+        <v>0.801555712055163</v>
       </c>
       <c r="P6">
-        <v>0.8252801082967016</v>
+        <v>0.8070274743222484</v>
       </c>
       <c r="Q6">
-        <v>0.8448453211824408</v>
+        <v>0.8128270434780082</v>
       </c>
       <c r="R6">
-        <v>0.8448453211824408</v>
+        <v>0.8380935988275751</v>
       </c>
       <c r="S6">
-        <v>0.8705262709214378</v>
+        <v>0.8380935988275751</v>
       </c>
       <c r="T6">
-        <v>0.8705262709214378</v>
+        <v>0.8865577172979502</v>
       </c>
       <c r="U6">
-        <v>0.9231326574080434</v>
+        <v>0.8865577172979502</v>
       </c>
       <c r="V6">
-        <v>0.9296028843005432</v>
+        <v>0.8865577172979502</v>
       </c>
       <c r="W6">
-        <v>0.9300965310413984</v>
+        <v>0.9049436790799248</v>
       </c>
       <c r="X6">
-        <v>0.9300965310413984</v>
+        <v>0.916002381716911</v>
       </c>
       <c r="Y6">
-        <v>0.9300965310413984</v>
+        <v>0.916002381716911</v>
       </c>
       <c r="Z6">
-        <v>0.9300965310413984</v>
+        <v>0.916002381716911</v>
       </c>
       <c r="AA6">
-        <v>0.9300965310413984</v>
+        <v>0.916002381716911</v>
       </c>
       <c r="AB6">
-        <v>0.9300965310413984</v>
+        <v>0.916002381716911</v>
       </c>
       <c r="AC6">
-        <v>0.9300965310413984</v>
+        <v>0.916002381716911</v>
       </c>
       <c r="AD6">
-        <v>0.9300965310413984</v>
+        <v>0.9208019278916987</v>
       </c>
       <c r="AE6">
-        <v>0.9414217162662132</v>
+        <v>0.9424939006853177</v>
       </c>
       <c r="AF6">
-        <v>0.9722250432302724</v>
+        <v>0.9424939006853177</v>
       </c>
       <c r="AG6">
-        <v>0.9722250432302724</v>
+        <v>0.9745229628295053</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1901,48 +1862,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1951,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5277462035933375</v>
+        <v>0.594174350678092</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -1969,21 +1930,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1998,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7004420173061794</v>
+        <v>0.5809474747704009</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2010,21 +1971,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2033,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7447764232840502</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6549701440097397</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -2051,21 +2012,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2074,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7544047121972346</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6282766920081526</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -2092,36 +2053,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6906790329758252</v>
+        <v>0.5788993042277223</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2133,16 +2094,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,48 +2121,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2210,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7676367043434791</v>
+        <v>0.7575329610976865</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -2228,21 +2189,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2251,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7321385833073178</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7004420173061794</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -2269,21 +2230,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2298,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006532943175738</v>
+        <v>0.7447764232840502</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2310,21 +2271,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2339,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7596816766817016</v>
+        <v>0.7544047121972346</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2351,39 +2312,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.801555712055163</v>
+      </c>
+      <c r="G6">
         <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7090081036242731</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -2392,16 +2353,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,48 +2380,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2469,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8089452927001018</v>
+        <v>0.8447940865879788</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -2487,21 +2448,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2516,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8648865848236172</v>
+        <v>0.8483990733562203</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2528,21 +2489,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2557,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8251000164718314</v>
+        <v>0.8597643441985952</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2569,21 +2530,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2598,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8698211358742149</v>
+        <v>0.8673336175001475</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2610,36 +2571,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8252801082967016</v>
+        <v>0.801555712055163</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2651,16 +2612,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,48 +2639,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2728,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9063100289834335</v>
+        <v>0.9126467672289154</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -2746,21 +2707,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2775,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9329744045940477</v>
+        <v>0.9578130407702627</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -2787,21 +2748,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2816,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.939350164044623</v>
+        <v>0.9539336038664836</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2828,21 +2789,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2851,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9501153016620045</v>
+        <v>0.9008095165763157</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -2869,39 +2830,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9231326574080434</v>
+        <v>0.9049436790799248</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -2910,16 +2871,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
